--- a/lin_R1_by_R2 (1 by 1.1)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 1.1)1000.xlsx
@@ -356,6 +356,152 @@
         <v>-0.0744284201086788</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -659,6 +805,152 @@
       </c>
       <c r="AV2" t="n">
         <v>-0.07442886853723316</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
       </c>
     </row>
   </sheetData>
@@ -966,6 +1258,152 @@
         <v>-0.07442893260252702</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1271,6 +1709,152 @@
         <v>-0.07442842007824657</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (1 by 1.1)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 1.1)1000.xlsx
@@ -66,142 +66,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.683333083173128</v>
+        <v>0.6833327778606306</v>
       </c>
       <c r="B1" t="n">
-        <v>0.6833329368562618</v>
+        <v>0.6833324529690941</v>
       </c>
       <c r="C1" t="n">
-        <v>0.683332704959861</v>
+        <v>0.683331938051716</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6833323374293467</v>
+        <v>0.6833311219651973</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6833317549340248</v>
+        <v>0.6833298285615805</v>
       </c>
       <c r="F1" t="n">
-        <v>0.68333083174439</v>
+        <v>0.6833277786709463</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6833293685955502</v>
+        <v>0.6833245298533069</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6833270496813296</v>
+        <v>0.6833193809250004</v>
       </c>
       <c r="I1" t="n">
-        <v>0.6833233745012477</v>
+        <v>0.6833112206764002</v>
       </c>
       <c r="J1" t="n">
-        <v>0.683317549862161</v>
+        <v>0.6832982881889633</v>
       </c>
       <c r="K1" t="n">
-        <v>0.6833083187548562</v>
+        <v>0.6832777931726002</v>
       </c>
       <c r="L1" t="n">
-        <v>0.6832936892483493</v>
+        <v>0.6832453147663644</v>
       </c>
       <c r="M1" t="n">
-        <v>0.6832705050840578</v>
+        <v>0.6831938500207422</v>
       </c>
       <c r="N1" t="n">
-        <v>0.683233765785707</v>
+        <v>0.6831123091537459</v>
       </c>
       <c r="O1" t="n">
-        <v>0.683175550793706</v>
+        <v>0.6829831389946222</v>
       </c>
       <c r="P1" t="n">
-        <v>0.6830833185675057</v>
+        <v>0.6827785772007714</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.6829372214631172</v>
+        <v>0.6824547676561322</v>
       </c>
       <c r="R1" t="n">
-        <v>0.6827058767025193</v>
+        <v>0.6819425640140088</v>
       </c>
       <c r="S1" t="n">
-        <v>0.682339730350665</v>
+        <v>0.6811332778069651</v>
       </c>
       <c r="T1" t="n">
-        <v>0.6817607059495963</v>
+        <v>0.6798568913303394</v>
       </c>
       <c r="U1" t="n">
-        <v>0.68084621132866</v>
+        <v>0.6778494914096252</v>
       </c>
       <c r="V1" t="n">
-        <v>0.6794048102295814</v>
+        <v>0.6747064067645566</v>
       </c>
       <c r="W1" t="n">
-        <v>0.6771401567146527</v>
+        <v>0.6698191771334323</v>
       </c>
       <c r="X1" t="n">
-        <v>0.6735998344634634</v>
+        <v>0.662301317575905</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.6681083539675395</v>
+        <v>0.6509259310405774</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.6596926933301595</v>
+        <v>0.6341348563849699</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.6470311993289698</v>
+        <v>0.6102309365847819</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6284987170250427</v>
+        <v>0.5778858470358118</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6024317914121752</v>
+        <v>0.5369648953598168</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.5677325958362782</v>
+        <v>0.4892885521123082</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5247344103382663</v>
+        <v>0.4385819444057625</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.47582345941633075</v>
+        <v>0.38920839503563603</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.4250630819942181</v>
+        <v>0.3444140798717088</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.3766769427277162</v>
+        <v>0.30539538253456583</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.3333970866041859</v>
+        <v>0.27167587593215936</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.29588983775445743</v>
+        <v>0.24215100438465795</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.26340379844157336</v>
+        <v>0.21591244229882584</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.23482994495299814</v>
+        <v>0.1924634203879079</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.20937310926117242</v>
+        <v>0.1715304371409045</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.18662115877760677</v>
+        <v>0.15287316820689065</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.16632160483235145</v>
+        <v>0.13624777773085658</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.14823185826053956</v>
+        <v>0.12143071406291175</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.13211144242967246</v>
+        <v>0.10822498375475706</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.11774418400711538</v>
+        <v>0.09645543968188211</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.10493938008189532</v>
+        <v>0.08596587535180424</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.09352715894364724</v>
+        <v>0.07661707771321602</v>
       </c>
       <c r="AU1" t="n">
         <v>0.08335605335408153</v>
@@ -212,142 +212,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-276.61146354643046</v>
+        <v>-185.63011542562182</v>
       </c>
       <c r="B2" t="n">
-        <v>-219.72045626522748</v>
+        <v>-147.45148139282793</v>
       </c>
       <c r="C2" t="n">
-        <v>-174.53036449467723</v>
+        <v>-117.12517642819357</v>
       </c>
       <c r="D2" t="n">
-        <v>-138.63465106132742</v>
+        <v>-93.03621420636833</v>
       </c>
       <c r="E2" t="n">
-        <v>-110.12173833013736</v>
+        <v>-73.90176964709126</v>
       </c>
       <c r="F2" t="n">
-        <v>-87.47320972464338</v>
+        <v>-58.70286380127385</v>
       </c>
       <c r="G2" t="n">
-        <v>-69.48294850699773</v>
+        <v>-46.630099505142475</v>
       </c>
       <c r="H2" t="n">
-        <v>-55.19290766289203</v>
+        <v>-37.0405580276049</v>
       </c>
       <c r="I2" t="n">
-        <v>-43.842090403194184</v>
+        <v>-29.423561299053826</v>
       </c>
       <c r="J2" t="n">
-        <v>-34.826024307314334</v>
+        <v>-23.373476433283585</v>
       </c>
       <c r="K2" t="n">
-        <v>-27.66457095735399</v>
+        <v>-18.568114279838042</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.97635680607663</v>
+        <v>-14.751571642348255</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.458463624001777</v>
+        <v>-11.72060343131364</v>
       </c>
       <c r="N2" t="n">
-        <v>-13.870296957545875</v>
+        <v>-9.313798984700513</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.020773514208447</v>
+        <v>-7.402986088191055</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.75814511538113</v>
+        <v>-5.88640479323907</v>
       </c>
       <c r="Q2" t="n">
-        <v>-6.9619172237066484</v>
+        <v>-4.683287247361078</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.536431515454187</v>
+        <v>-3.729554367503042</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.405770426713736</v>
+        <v>-2.9743991603447184</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.5097116925186547</v>
+        <v>-2.377572749199519</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.8005162145701687</v>
+        <v>-1.907224800063489</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.2403758320502005</v>
+        <v>-1.5381763850085324</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.7993806140686348</v>
+        <v>-1.2505211579036384</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.453889295807854</v>
+        <v>-1.0284610718020377</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.1852021644330815</v>
+        <v>-0.8592895624007828</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.978444478656089</v>
+        <v>-0.7324507452517562</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.8215757921603105</v>
+        <v>-0.638657140385836</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.7044627468620993</v>
+        <v>-0.5691798216977871</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6180242260160889</v>
+        <v>-0.515613153795837</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.553611990125606</v>
+        <v>-0.4704442234281178</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.5029671218513118</v>
+        <v>-0.42827909617651405</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.4590135464689655</v>
+        <v>-0.38677534689045373</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.41712480137789076</v>
+        <v>-0.3462767672212133</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.37577595168756456</v>
+        <v>-0.3083015886523516</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.33579637215120894</v>
+        <v>-0.27404338468174744</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.2987357658619005</v>
+        <v>-0.24376600011315178</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.2655549326113919</v>
+        <v>-0.21705839999233686</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.23628863231290284</v>
+        <v>-0.19336119630985593</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.21043830337745512</v>
+        <v>-0.17225558132375857</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.18746902318892011</v>
+        <v>-0.15345257058990733</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.1670053143629109</v>
+        <v>-0.13670803943627147</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.14877668521889434</v>
+        <v>-0.12179654802513358</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.13254421890317417</v>
+        <v>-0.10851583037054098</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.11808822800860003</v>
+        <v>-0.09668663580309365</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.10521289171939706</v>
+        <v>-0.08614964028449378</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.09374456993054604</v>
+        <v>-0.07676313210162493</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.08352885798503425</v>
@@ -358,142 +358,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -517,142 +517,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.6833330896536747</v>
+        <v>0.6833327922503203</v>
       </c>
       <c r="B1" t="n">
-        <v>0.6833329471271793</v>
+        <v>0.6833324757749344</v>
       </c>
       <c r="C1" t="n">
-        <v>0.683332721238025</v>
+        <v>0.6833319741958316</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6833323632281387</v>
+        <v>0.683331179247988</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6833317958214518</v>
+        <v>0.6833299193442348</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6833308965443272</v>
+        <v>0.6833279225405787</v>
       </c>
       <c r="G1" t="n">
-        <v>0.683329471290834</v>
+        <v>0.6833247578432338</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6833272124280814</v>
+        <v>0.6833197421941839</v>
       </c>
       <c r="I1" t="n">
-        <v>0.6833236324015421</v>
+        <v>0.6833117930724597</v>
       </c>
       <c r="J1" t="n">
-        <v>0.683317958516372</v>
+        <v>0.6832991949312595</v>
       </c>
       <c r="K1" t="n">
-        <v>0.6833089662016477</v>
+        <v>0.6832792291474271</v>
       </c>
       <c r="L1" t="n">
-        <v>0.6832947148138996</v>
+        <v>0.6832475878375255</v>
       </c>
       <c r="M1" t="n">
-        <v>0.6832721290697711</v>
+        <v>0.6831974455928446</v>
       </c>
       <c r="N1" t="n">
-        <v>0.6832363360543066</v>
+        <v>0.6831179902371733</v>
       </c>
       <c r="O1" t="n">
-        <v>0.6831796154419778</v>
+        <v>0.6829920992118433</v>
       </c>
       <c r="P1" t="n">
-        <v>0.6830897382222094</v>
+        <v>0.6827926696171323</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.6829473401515639</v>
+        <v>0.6824768345192808</v>
       </c>
       <c r="R1" t="n">
-        <v>0.6827217753358498</v>
+        <v>0.6819768819141538</v>
       </c>
       <c r="S1" t="n">
-        <v>0.6823645869424549</v>
+        <v>0.6811860880298327</v>
       </c>
       <c r="T1" t="n">
-        <v>0.6817992697215552</v>
+        <v>0.6799368679682686</v>
       </c>
       <c r="U1" t="n">
-        <v>0.6809053381536794</v>
+        <v>0.677967767302383</v>
       </c>
       <c r="V1" t="n">
-        <v>0.6794938622190813</v>
+        <v>0.6748754545058377</v>
       </c>
       <c r="W1" t="n">
-        <v>0.6772708035797151</v>
+        <v>0.6700496883849816</v>
       </c>
       <c r="X1" t="n">
-        <v>0.6737844768772946</v>
+        <v>0.6625968257704192</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.6683563708436704</v>
+        <v>0.6512766653785975</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.6600046206753255</v>
+        <v>0.6345141960336363</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.6473929035948142</v>
+        <v>0.6105977425631658</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6288791723989594</v>
+        <v>0.5781935405993924</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6027872580595689</v>
+        <v>0.5371753219729439</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.5680172785887725</v>
+        <v>0.489386004821954</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5249149376707375</v>
+        <v>0.4385802889081084</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.4758918060935066</v>
+        <v>0.3891454942094418</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.4250406567932673</v>
+        <v>0.3443348352735249</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.3766054579379245</v>
+        <v>0.3053325313201798</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.33331988068056617</v>
+        <v>0.2716398382949319</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.29583407804132333</v>
+        <v>0.2421344574175955</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.26337413095948553</v>
+        <v>0.21590386821717542</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.23481652636459957</v>
+        <v>0.19245678165607333</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.2093653544238482</v>
+        <v>0.17152499154941941</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.18661480063403227</v>
+        <v>0.15286923060743035</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.1663165573428689</v>
+        <v>0.13624504722766898</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.14822829011147923</v>
+        <v>0.1214287827467682</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.13210895828147792</v>
+        <v>0.10822361185086514</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.11774242111999088</v>
+        <v>0.09645446752195042</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.10493812895766243</v>
+        <v>0.08596518641890274</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.09352627243453793</v>
+        <v>0.07661658953223373</v>
       </c>
       <c r="AU1" t="n">
         <v>0.08335542511525199</v>
@@ -663,142 +663,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-276.6114620544707</v>
+        <v>-185.6301132024547</v>
       </c>
       <c r="B2" t="n">
-        <v>-219.72045438697677</v>
+        <v>-147.4514785940771</v>
       </c>
       <c r="C2" t="n">
-        <v>-174.5303621301303</v>
+        <v>-117.12517290487627</v>
       </c>
       <c r="D2" t="n">
-        <v>-138.63464808460026</v>
+        <v>-93.03620977097661</v>
       </c>
       <c r="E2" t="n">
-        <v>-110.12173458278167</v>
+        <v>-73.90176406366689</v>
       </c>
       <c r="F2" t="n">
-        <v>-87.4732050072451</v>
+        <v>-58.70285677296298</v>
       </c>
       <c r="G2" t="n">
-        <v>-69.48294256863</v>
+        <v>-46.63009065862712</v>
       </c>
       <c r="H2" t="n">
-        <v>-55.19290018789724</v>
+        <v>-37.040546893701006</v>
       </c>
       <c r="I2" t="n">
-        <v>-43.84208099466283</v>
+        <v>-29.42354728867942</v>
       </c>
       <c r="J2" t="n">
-        <v>-34.82601246652384</v>
+        <v>-23.37345880798818</v>
       </c>
       <c r="K2" t="n">
-        <v>-27.664556058357206</v>
+        <v>-18.568092116258704</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.97633806465277</v>
+        <v>-14.751543790550123</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.45844006043904</v>
+        <v>-11.720568468442549</v>
       </c>
       <c r="N2" t="n">
-        <v>-13.870267353494262</v>
+        <v>-9.313755168609836</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.020736365672194</v>
+        <v>-7.402931322350612</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.75809858786532</v>
+        <v>-5.886336627165524</v>
       </c>
       <c r="Q2" t="n">
-        <v>-6.961859123516622</v>
+        <v>-4.683202960509885</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.536359306455083</v>
+        <v>-3.7294512244073417</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.405681349375684</v>
+        <v>-2.974274982154027</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.5096030868829</v>
+        <v>-2.377427003147387</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.8003862091601217</v>
+        <v>-1.9070603905567183</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.2402246078003634</v>
+        <v>-1.5380020717655247</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.7992123904717872</v>
+        <v>-1.2503538311403184</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.453714826408322</v>
+        <v>-1.0283261140711633</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.1850407111938746</v>
+        <v>-0.8592171812134194</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.9783232781216998</v>
+        <v>-0.732467721956601</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.8215251005529564</v>
+        <v>-0.6387763985155832</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.7045066515576933</v>
+        <v>-0.5693921406461828</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6181703378613219</v>
+        <v>-0.5158852864838218</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5538444877085776</v>
+        <v>-0.47072639400470606</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.5032471772473683</v>
+        <v>-0.4285212903987197</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.4592894654955146</v>
+        <v>-0.38694565634684613</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.41734977760335157</v>
+        <v>-0.3463715917802388</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.37592520411037433</v>
+        <v>-0.3083414677335153</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.33587378534520296</v>
+        <v>-0.27405714018742305</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.2987659265553769</v>
+        <v>-0.24377412761698034</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.26556577082081767</v>
+        <v>-0.21706731952903066</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.23629684284093366</v>
+        <v>-0.19336937445450272</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.21044728084885417</v>
+        <v>-0.1722614339323026</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.18747663709935908</v>
+        <v>-0.1534564852319</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.1670105628414035</v>
+        <v>-0.1367107852011656</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.14878022762296567</v>
+        <v>-0.12179850659803411</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.13254672833985476</v>
+        <v>-0.10851721701917184</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.11809001445651016</v>
+        <v>-0.09668761713019468</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.1052141555968611</v>
+        <v>-0.08615033507237341</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.09374546459811428</v>
+        <v>-0.07676362398013256</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.08352949139920615</v>
@@ -809,142 +809,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -968,142 +968,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.6839997490326138</v>
+        <v>0.6839994427349533</v>
       </c>
       <c r="B1" t="n">
-        <v>0.683999602243625</v>
+        <v>0.683999116795047</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6839993695989479</v>
+        <v>0.6839986002160546</v>
       </c>
       <c r="D1" t="n">
-        <v>0.683999000882465</v>
+        <v>0.6839977814959032</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6839984165074323</v>
+        <v>0.6839964839178795</v>
       </c>
       <c r="F1" t="n">
-        <v>0.683997490338463</v>
+        <v>0.6839944274103008</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6839960224672091</v>
+        <v>0.6839911681031122</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6839936960672445</v>
+        <v>0.6839860025439685</v>
       </c>
       <c r="I1" t="n">
-        <v>0.6839900090199881</v>
+        <v>0.6839778159221535</v>
       </c>
       <c r="J1" t="n">
-        <v>0.6839841655649922</v>
+        <v>0.6839648415980774</v>
       </c>
       <c r="K1" t="n">
-        <v>0.6839749046171459</v>
+        <v>0.6839442801800959</v>
       </c>
       <c r="L1" t="n">
-        <v>0.6839602277680779</v>
+        <v>0.6839116962965688</v>
       </c>
       <c r="M1" t="n">
-        <v>0.6839369684493903</v>
+        <v>0.6838600637866844</v>
       </c>
       <c r="N1" t="n">
-        <v>0.6839001097353952</v>
+        <v>0.6837782555523737</v>
       </c>
       <c r="O1" t="n">
-        <v>0.6838417047236985</v>
+        <v>0.6836486579818811</v>
       </c>
       <c r="P1" t="n">
-        <v>0.6837491694500313</v>
+        <v>0.6834434097894198</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.6836025873839916</v>
+        <v>0.6831184905601502</v>
       </c>
       <c r="R1" t="n">
-        <v>0.6833704625880852</v>
+        <v>0.6826044763588238</v>
       </c>
       <c r="S1" t="n">
-        <v>0.6830030523929882</v>
+        <v>0.6817922013872295</v>
       </c>
       <c r="T1" t="n">
-        <v>0.6824219599102521</v>
+        <v>0.680510817347824</v>
       </c>
       <c r="U1" t="n">
-        <v>0.6815040397166469</v>
+        <v>0.6784949708141699</v>
       </c>
       <c r="V1" t="n">
-        <v>0.6800568918538531</v>
+        <v>0.6753375681577507</v>
       </c>
       <c r="W1" t="n">
-        <v>0.6777825077104999</v>
+        <v>0.6704263450336965</v>
       </c>
       <c r="X1" t="n">
-        <v>0.6742257140282448</v>
+        <v>0.6628694970570868</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.6687068029798684</v>
+        <v>0.6514339155118597</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.6602470891562453</v>
+        <v>0.6345562152199945</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.6475187262041203</v>
+        <v>0.6105384444561512</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6288921177689442</v>
+        <v>0.5780604976844592</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6027049678451375</v>
+        <v>0.5370078478190192</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.5678707705375461</v>
+        <v>0.48922869469892744</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5247458605954448</v>
+        <v>0.4384694230948994</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.47574411772966946</v>
+        <v>0.38909401002062927</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.42494561895119465</v>
+        <v>0.3443288587885473</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.37656842836546</v>
+        <v>0.30534484286040464</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.33332153284580296</v>
+        <v>0.2716493889286511</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.29584710436285805</v>
+        <v>0.24213570073278898</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.2633813951257757</v>
+        <v>0.21590126970225268</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.23481615306465095</v>
+        <v>0.19245472276851455</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.209362632169337</v>
+        <v>0.17152411070510143</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.1866131124696354</v>
+        <v>0.1528687438993844</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.16631585024420217</v>
+        <v>0.13624465638965044</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.14822783446363189</v>
+        <v>0.12142849767964929</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.13210859453363638</v>
+        <v>0.10822341288853829</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.11774216247608166</v>
+        <v>0.09645432666576688</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.10493794769706737</v>
+        <v>0.08596508672217108</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.0935261440048911</v>
+        <v>0.07661651898958438</v>
       </c>
       <c r="AU1" t="n">
         <v>0.08335533424117189</v>
@@ -1114,142 +1114,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-276.61146461216487</v>
+        <v>-185.63011701370044</v>
       </c>
       <c r="B2" t="n">
-        <v>-219.7204576069085</v>
+        <v>-147.45148339210343</v>
       </c>
       <c r="C2" t="n">
-        <v>-174.53036618375538</v>
+        <v>-117.12517894513822</v>
       </c>
       <c r="D2" t="n">
-        <v>-138.63465318775437</v>
+        <v>-93.03621737502569</v>
       </c>
       <c r="E2" t="n">
-        <v>-110.12174100715741</v>
+        <v>-73.90177363621807</v>
       </c>
       <c r="F2" t="n">
-        <v>-87.47321309482615</v>
+        <v>-58.70286882333393</v>
       </c>
       <c r="G2" t="n">
-        <v>-69.48295274983477</v>
+        <v>-46.63010582763515</v>
       </c>
       <c r="H2" t="n">
-        <v>-55.19291300436389</v>
+        <v>-37.040565987338226</v>
       </c>
       <c r="I2" t="n">
-        <v>-43.84209712782146</v>
+        <v>-29.4235713201362</v>
       </c>
       <c r="J2" t="n">
-        <v>-34.82603277334298</v>
+        <v>-23.373489049818975</v>
       </c>
       <c r="K2" t="n">
-        <v>-27.664581615899724</v>
+        <v>-18.56813016458627</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.976370225280473</v>
+        <v>-14.751591642979461</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.45848051954628</v>
+        <v>-11.72062861638372</v>
       </c>
       <c r="N2" t="n">
-        <v>-13.87031823127964</v>
+        <v>-9.3138307021598</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.020800303168082</v>
+        <v>-7.403026040182835</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.758178854247394</v>
+        <v>-5.886455132191523</v>
       </c>
       <c r="Q2" t="n">
-        <v>-6.961959724756213</v>
+        <v>-4.683350699759017</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.53648507138532</v>
+        <v>-3.7296343922768957</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.405837943038229</v>
+        <v>-2.974500145148874</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.509796856129867</v>
+        <v>-2.377700230654879</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.8006236990843503</v>
+        <v>-1.9073856432359753</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.240511516817537</v>
+        <v>-1.5383787444302637</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.799551729066326</v>
+        <v>-1.2507738632783285</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.4541042717605819</v>
+        <v>-1.0287719308859014</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.1854697808586094</v>
+        <v>-0.8596621625129366</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.978771793128757</v>
+        <v>-0.7328798278920525</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.8219645217542674</v>
+        <v>-0.639123612606112</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.7049043846735382</v>
+        <v>-0.5696482376515594</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6184953422455818</v>
+        <v>-0.5160364340158579</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5540731439429791</v>
+        <v>-0.4707786340922443</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.5033702765093601</v>
+        <v>-0.4285035386480348</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.4593192798849</v>
+        <v>-0.38690040006408133</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.4173203640520759</v>
+        <v>-0.3463351140543559</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.3758794776514903</v>
+        <v>-0.30832817450984495</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.33584313889261913</v>
+        <v>-0.2740605529546909</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.29875831836524314</v>
+        <v>-0.24378122228087767</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.26557133781568437</v>
+        <v>-0.21707120261303692</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.2363033758688615</v>
+        <v>-0.19337049375065027</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.2104502019562899</v>
+        <v>-0.17226193375300045</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.18747742884863378</v>
+        <v>-0.15345700976033202</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.16701106576128957</v>
+        <v>-0.13671119818802835</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.14878073628109548</v>
+        <v>-0.12179878686925424</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.13254710108045434</v>
+        <v>-0.10851741454640941</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.11809026867275936</v>
+        <v>-0.09668775739830524</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.10521433595418232</v>
+        <v>-0.08615043433301706</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.09374559245993828</v>
+        <v>-0.07676369425310801</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.08352958189079823</v>
@@ -1260,142 +1260,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -1419,142 +1419,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.6833330833102729</v>
+        <v>0.683332778165144</v>
       </c>
       <c r="B1" t="n">
-        <v>0.6833329370736175</v>
+        <v>0.6833324534516939</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6833327053043357</v>
+        <v>0.6833319388165313</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6833323379752748</v>
+        <v>0.6833311231772126</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6833317557991936</v>
+        <v>0.6833298304821553</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6833308331154171</v>
+        <v>0.6833277817139988</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6833293707680467</v>
+        <v>0.6833245346740767</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6833270531234124</v>
+        <v>0.683319388560025</v>
       </c>
       <c r="I1" t="n">
-        <v>0.683323379953839</v>
+        <v>0.6833112327635936</v>
       </c>
       <c r="J1" t="n">
-        <v>0.6833175584970512</v>
+        <v>0.6832983073119943</v>
       </c>
       <c r="K1" t="n">
-        <v>0.6833083324229574</v>
+        <v>0.6832778233956324</v>
       </c>
       <c r="L1" t="n">
-        <v>0.6832937108674936</v>
+        <v>0.6832453624539935</v>
       </c>
       <c r="M1" t="n">
-        <v>0.6832705392394861</v>
+        <v>0.683193925069101</v>
       </c>
       <c r="N1" t="n">
-        <v>0.6832338196465951</v>
+        <v>0.683112426773166</v>
       </c>
       <c r="O1" t="n">
-        <v>0.683175635478602</v>
+        <v>0.6829833221246431</v>
       </c>
       <c r="P1" t="n">
-        <v>0.6830834510942555</v>
+        <v>0.6827788593569687</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.6829374273200013</v>
+        <v>0.6824551951676654</v>
       </c>
       <c r="R1" t="n">
-        <v>0.6827061926903523</v>
+        <v>0.6819431945513904</v>
       </c>
       <c r="S1" t="n">
-        <v>0.6823402062591574</v>
+        <v>0.6811341678764296</v>
       </c>
       <c r="T1" t="n">
-        <v>0.6817614010874012</v>
+        <v>0.6798580588146773</v>
       </c>
       <c r="U1" t="n">
-        <v>0.6808471770007714</v>
+        <v>0.6778508346883815</v>
       </c>
       <c r="V1" t="n">
-        <v>0.6794060424218201</v>
+        <v>0.6747075760893452</v>
       </c>
       <c r="W1" t="n">
-        <v>0.6771415013897341</v>
+        <v>0.6698194547267013</v>
       </c>
       <c r="X1" t="n">
-        <v>0.673600851824632</v>
+        <v>0.6622996622620162</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.6681082236737169</v>
+        <v>0.650921349757712</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.6596903360043069</v>
+        <v>0.6341270131421434</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.6470257365706739</v>
+        <v>0.6102205766626276</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6284900800078473</v>
+        <v>0.5778746691283272</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6024210183075231</v>
+        <v>0.536954945467837</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.5677215492610266</v>
+        <v>0.48928152737243813</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5247251053093842</v>
+        <v>0.43857872489746347</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.47581740763645924</v>
+        <v>0.3892088372603623</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.42506090162441307</v>
+        <v>0.3444170027160248</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.3766782040333763</v>
+        <v>0.30539893778211347</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.3334003694096469</v>
+        <v>0.2716784719594565</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.2958932557267887</v>
+        <v>0.24215217138661232</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.2634060041442077</v>
+        <v>0.21591272524054855</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.23483079899344242</v>
+        <v>0.19246349612909158</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.20937328494315707</v>
+        <v>0.1715305463697497</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.18662123845331685</v>
+        <v>0.152873267570131</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.16632171850674932</v>
+        <v>0.1362478363412438</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.14823194657328753</v>
+        <v>0.12143074870454262</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.1321114926748709</v>
+        <v>0.1082250060388291</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.1177442147294618</v>
+        <v>0.09645545378195765</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.10493939983486075</v>
+        <v>0.08596588424552075</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.09352717140171286</v>
+        <v>0.07661708333033969</v>
       </c>
       <c r="AU1" t="n">
         <v>0.08335606121850762</v>
@@ -1565,142 +1565,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-276.6114635464314</v>
+        <v>-185.63011542562506</v>
       </c>
       <c r="B2" t="n">
-        <v>-219.72045626522942</v>
+        <v>-147.45148139283438</v>
       </c>
       <c r="C2" t="n">
-        <v>-174.53036449468112</v>
+        <v>-117.12517642820647</v>
       </c>
       <c r="D2" t="n">
-        <v>-138.6346510613352</v>
+        <v>-93.03621420639405</v>
       </c>
       <c r="E2" t="n">
-        <v>-110.12173833015288</v>
+        <v>-73.90176964714259</v>
       </c>
       <c r="F2" t="n">
-        <v>-87.47320972467433</v>
+        <v>-58.70286380137625</v>
       </c>
       <c r="G2" t="n">
-        <v>-69.48294850705949</v>
+        <v>-46.63009950534674</v>
       </c>
       <c r="H2" t="n">
-        <v>-55.192907663015234</v>
+        <v>-37.0405580280123</v>
       </c>
       <c r="I2" t="n">
-        <v>-43.84209040343993</v>
+        <v>-29.42356129986618</v>
       </c>
       <c r="J2" t="n">
-        <v>-34.826024307804445</v>
+        <v>-23.373476434902813</v>
       </c>
       <c r="K2" t="n">
-        <v>-27.664570958331183</v>
+        <v>-18.568114283063675</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.976356808024168</v>
+        <v>-14.751571648767982</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.458463627880608</v>
+        <v>-11.72060344407151</v>
       </c>
       <c r="N2" t="n">
-        <v>-13.870296965263064</v>
+        <v>-9.313799009995135</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.020773529536726</v>
+        <v>-7.402986138157935</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.758145145746912</v>
+        <v>-5.8864048913744735</v>
       </c>
       <c r="Q2" t="n">
-        <v>-6.961917283613046</v>
+        <v>-4.683287438362394</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.536431632870738</v>
+        <v>-3.729554734047474</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.405770654514282</v>
+        <v>-2.9743998486599046</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.5097121275302725</v>
+        <v>-2.3775739998523227</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.8005170253160157</v>
+        <v>-1.9072269639370176</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.2403772885806243</v>
+        <v>-1.538179873851542</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.7993830928378634</v>
+        <v>-1.2505262573577791</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.4538932002053635</v>
+        <v>-1.0284676062966487</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.185207693261673</v>
+        <v>-0.8592965966413174</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.978451272756036</v>
+        <v>-0.7324566602893211</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.8215827034900721</v>
+        <v>-0.638660212851533</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.7044680553185317</v>
+        <v>-0.5691789796521748</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6180263136870834</v>
+        <v>-0.515608428940979</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5536100568168156</v>
+        <v>-0.4704367042004956</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.5029615058717293</v>
+        <v>-0.428270538917679</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.45900556072814214</v>
+        <v>-0.3867676845028987</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.4171162991305101</v>
+        <v>-0.34627154114034353</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.37576882239908505</v>
+        <v>-0.30829930174460873</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.33579193945990826</v>
+        <v>-0.27404324622273046</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.2987341772969504</v>
+        <v>-0.24376659421612906</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.26555512734221576</v>
+        <v>-0.21705877313349506</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.23628922349617104</v>
+        <v>-0.1933612374199849</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.21043857125997292</v>
+        <v>-0.17225553675667185</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.18746901776709476</v>
+        <v>-0.1534525584267272</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.1670052755170902</v>
+        <v>-0.13670804155918656</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.14877668016139056</v>
+        <v>-0.12179654810283842</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.13254422081422226</v>
+        <v>-0.10851583004375476</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.11808822773690612</v>
+        <v>-0.0966866357001041</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.10521289147981057</v>
+        <v>-0.08614964022163978</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.09374456984337118</v>
+        <v>-0.076763132066075</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.08352885793050785</v>
@@ -1711,142 +1711,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>

--- a/lin_R1_by_R2 (1 by 1.1)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 1.1)1000.xlsx
@@ -358,142 +358,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -809,142 +809,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -1260,142 +1260,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -1711,142 +1711,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>

--- a/lin_R1_by_R2 (1 by 1.1)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 1.1)1000.xlsx
@@ -66,440 +66,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.6833327778606306</v>
+        <v>0.6833331444223125</v>
       </c>
       <c r="B1" t="n">
-        <v>0.6833324529690941</v>
+        <v>0.6833330339296194</v>
       </c>
       <c r="C1" t="n">
-        <v>0.683331938051716</v>
+        <v>0.6833328588106189</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6833311219651973</v>
+        <v>0.6833325812659994</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6833298285615805</v>
+        <v>0.6833321413881559</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6833277786709463</v>
+        <v>0.6833314442306015</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6833245298533069</v>
+        <v>0.6833303393149744</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6833193809250004</v>
+        <v>0.6833285881533612</v>
       </c>
       <c r="I1" t="n">
-        <v>0.6833112206764002</v>
+        <v>0.6833258127784849</v>
       </c>
       <c r="J1" t="n">
-        <v>0.6832982881889633</v>
+        <v>0.6833214141791925</v>
       </c>
       <c r="K1" t="n">
-        <v>0.6832777931726002</v>
+        <v>0.6833144430536224</v>
       </c>
       <c r="L1" t="n">
-        <v>0.6832453147663644</v>
+        <v>0.683303395027594</v>
       </c>
       <c r="M1" t="n">
-        <v>0.6831938500207422</v>
+        <v>0.6832858862503405</v>
       </c>
       <c r="N1" t="n">
-        <v>0.6831123091537459</v>
+        <v>0.6832581396318822</v>
       </c>
       <c r="O1" t="n">
-        <v>0.6829831389946222</v>
+        <v>0.6832141715469221</v>
       </c>
       <c r="P1" t="n">
-        <v>0.6827785772007714</v>
+        <v>0.6831445052638582</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.6824547676561322</v>
+        <v>0.6830341379293842</v>
       </c>
       <c r="R1" t="n">
-        <v>0.6819425640140088</v>
+        <v>0.6828593336531668</v>
       </c>
       <c r="S1" t="n">
-        <v>0.6811332778069651</v>
+        <v>0.6825825789409812</v>
       </c>
       <c r="T1" t="n">
-        <v>0.6798568913303394</v>
+        <v>0.6821446826935674</v>
       </c>
       <c r="U1" t="n">
-        <v>0.6778494914096252</v>
+        <v>0.6814524925169</v>
       </c>
       <c r="V1" t="n">
-        <v>0.6747064067645566</v>
+        <v>0.6803600140976138</v>
       </c>
       <c r="W1" t="n">
-        <v>0.6698191771334323</v>
+        <v>0.6786399341807116</v>
       </c>
       <c r="X1" t="n">
-        <v>0.662301317575905</v>
+        <v>0.6759420068700573</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.6509259310405774</v>
+        <v>0.6717355006333722</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.6341348563849699</v>
+        <v>0.6652374332133079</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.6102309365847819</v>
+        <v>0.6553417062849897</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.5778858470358118</v>
+        <v>0.6405939378506776</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.5369648953598168</v>
+        <v>0.6193055839624828</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.4892885521123082</v>
+        <v>0.5899421578433364</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.4385819444057625</v>
+        <v>0.5518583470736895</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.38920839503563603</v>
+        <v>0.5061542268774594</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.3444140798717088</v>
+        <v>0.45598750875486005</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.30539538253456583</v>
+        <v>0.40570408047898</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.27167587593215936</v>
+        <v>0.3591018368413082</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.24215100438465795</v>
+        <v>0.3180967255069314</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.21591244229882584</v>
+        <v>0.28267985445087906</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.1924634203879079</v>
+        <v>0.25184295654380284</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.1715304371409045</v>
+        <v>0.2245551425424235</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.15287316820689065</v>
+        <v>0.2001886435093871</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.13624777773085658</v>
+        <v>0.17842169466805835</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.12143071406291175</v>
+        <v>0.15901380642175542</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.10822498375475706</v>
+        <v>0.1417200047304506</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.09645543968188211</v>
+        <v>0.12630785096507435</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.08596587535180424</v>
+        <v>0.11257172126010104</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.07661707771321602</v>
+        <v>0.10032944894848503</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.08335605335408153</v>
+        <v>0.08941857416560708</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.07429107926020555</v>
+        <v>0.07969428764732922</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.07102753736181025</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-185.63011542562182</v>
+        <v>-318.31018680416304</v>
       </c>
       <c r="B2" t="n">
-        <v>-147.45148139282793</v>
+        <v>-252.8429084461917</v>
       </c>
       <c r="C2" t="n">
-        <v>-117.12517642819357</v>
+        <v>-200.84043695920013</v>
       </c>
       <c r="D2" t="n">
-        <v>-93.03621420636833</v>
+        <v>-159.53345110842466</v>
       </c>
       <c r="E2" t="n">
-        <v>-73.90176964709126</v>
+        <v>-126.72220327040667</v>
       </c>
       <c r="F2" t="n">
-        <v>-58.70286380127385</v>
+        <v>-100.65937485051438</v>
       </c>
       <c r="G2" t="n">
-        <v>-46.630099505142475</v>
+        <v>-79.95702519593254</v>
       </c>
       <c r="H2" t="n">
-        <v>-37.0405580276049</v>
+        <v>-63.51267869431613</v>
       </c>
       <c r="I2" t="n">
-        <v>-29.423561299053826</v>
+        <v>-50.45061392637233</v>
       </c>
       <c r="J2" t="n">
-        <v>-23.373476433283585</v>
+        <v>-40.0752283052269</v>
       </c>
       <c r="K2" t="n">
-        <v>-18.568114279838042</v>
+        <v>-31.833994698710054</v>
       </c>
       <c r="L2" t="n">
-        <v>-14.751571642348255</v>
+        <v>-25.288037337914346</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.72060343131364</v>
+        <v>-20.08876006845991</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.313798984700513</v>
+        <v>-15.959282306841706</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.402986088191055</v>
+        <v>-12.679694085327062</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.88640479323907</v>
+        <v>-10.075344935857562</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.683287247361078</v>
+        <v>-8.007542899745554</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.729554367503042</v>
+        <v>-6.366168245057515</v>
       </c>
       <c r="S2" t="n">
-        <v>-2.9743991603447184</v>
+        <v>-5.063808334156707</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.377572749199519</v>
+        <v>-4.031100884927888</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.907224800063489</v>
+        <v>-3.2130368192553194</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.5381763850085324</v>
+        <v>-2.566024221717752</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.2505211579036384</v>
+        <v>-2.0555540110555923</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.0284610718020377</v>
+        <v>-1.654337341173082</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.8592895624007828</v>
+        <v>-1.3408054217315168</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.7324507452517562</v>
+        <v>-1.0978751566694562</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.638657140385836</v>
+        <v>-0.9118911414137464</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.5691798216977871</v>
+        <v>-0.7716648046305855</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.515613153795837</v>
+        <v>-0.6675678452122997</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.4704442234281178</v>
+        <v>-0.5907388088908595</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.42827909617651405</v>
+        <v>-0.5326422555342818</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.38677534689045373</v>
+        <v>-0.4853425622590996</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.3462767672212133</v>
+        <v>-0.44257480378888714</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.3083015886523516</v>
+        <v>-0.4009169979338193</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.27404338468174744</v>
+        <v>-0.3599259108712165</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.24376600011315178</v>
+        <v>-0.32091393891260916</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.21705839999233686</v>
+        <v>-0.28530686930884486</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.19336119630985593</v>
+        <v>-0.25369146311442486</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.17225558132375857</v>
+        <v>-0.2258280171648904</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.15345257058990733</v>
+        <v>-0.2011572902712409</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.13670803943627147</v>
+        <v>-0.17920224375433563</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.12179654802513358</v>
+        <v>-0.15964021356877078</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.10851583037054098</v>
+        <v>-0.14221798693883173</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.09668663580309365</v>
+        <v>-0.1267035420285959</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.08614964028449378</v>
+        <v>-0.11288631139983024</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.07676313210162493</v>
+        <v>-0.1005795294622689</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08352885798503425</v>
+        <v>-0.08961735408629516</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.0744284201086788</v>
+        <v>-0.07985227945254349</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.0711531022563422</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -517,440 +526,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.6833327922503203</v>
+        <v>0.683333149316174</v>
       </c>
       <c r="B1" t="n">
-        <v>0.6833324757749344</v>
+        <v>0.6833330416858345</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6833319741958316</v>
+        <v>0.6833328711033098</v>
       </c>
       <c r="D1" t="n">
-        <v>0.683331179247988</v>
+        <v>0.6833326007483966</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6833299193442348</v>
+        <v>0.6833321722651599</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6833279225405787</v>
+        <v>0.6833314931660617</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6833247578432338</v>
+        <v>0.6833304168692039</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6833197421941839</v>
+        <v>0.6833287110603733</v>
       </c>
       <c r="I1" t="n">
-        <v>0.6833117930724597</v>
+        <v>0.6833260075524826</v>
       </c>
       <c r="J1" t="n">
-        <v>0.6832991949312595</v>
+        <v>0.6833217228237211</v>
       </c>
       <c r="K1" t="n">
-        <v>0.6832792291474271</v>
+        <v>0.6833149320930352</v>
       </c>
       <c r="L1" t="n">
-        <v>0.6832475878375255</v>
+        <v>0.6833041697784872</v>
       </c>
       <c r="M1" t="n">
-        <v>0.6831974455928446</v>
+        <v>0.6832871133338054</v>
       </c>
       <c r="N1" t="n">
-        <v>0.6831179902371733</v>
+        <v>0.6832600823865842</v>
       </c>
       <c r="O1" t="n">
-        <v>0.6829920992118433</v>
+        <v>0.683217245489547</v>
       </c>
       <c r="P1" t="n">
-        <v>0.6827926696171323</v>
+        <v>0.68314936433119</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.6824768345192808</v>
+        <v>0.6830418070595345</v>
       </c>
       <c r="R1" t="n">
-        <v>0.6819768819141538</v>
+        <v>0.6828714088342848</v>
       </c>
       <c r="S1" t="n">
-        <v>0.6811860880298327</v>
+        <v>0.682601519835295</v>
       </c>
       <c r="T1" t="n">
-        <v>0.6799368679682686</v>
+        <v>0.6821742184080566</v>
       </c>
       <c r="U1" t="n">
-        <v>0.677967767302383</v>
+        <v>0.6814981314623886</v>
       </c>
       <c r="V1" t="n">
-        <v>0.6748754545058377</v>
+        <v>0.6804295617222121</v>
       </c>
       <c r="W1" t="n">
-        <v>0.6700496883849816</v>
+        <v>0.6787437324740614</v>
       </c>
       <c r="X1" t="n">
-        <v>0.6625968257704192</v>
+        <v>0.6760923045004033</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.6512766653785975</v>
+        <v>0.6719440993514688</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.6345141960336363</v>
+        <v>0.6655110237804642</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.6105977425631658</v>
+        <v>0.6556756800447333</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.5781935405993924</v>
+        <v>0.640967518569173</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.5371753219729439</v>
+        <v>0.619681900851653</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.489386004821954</v>
+        <v>0.590275104519637</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.4385802889081084</v>
+        <v>0.5521051889016588</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.3891454942094418</v>
+        <v>0.5062902695868989</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.3443348352735249</v>
+        <v>0.4560164292414978</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.3053325313201798</v>
+        <v>0.4056569989348153</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.2716398382949319</v>
+        <v>0.3590235422598163</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.2421344574175955</v>
+        <v>0.31802592156750936</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.21590386821717542</v>
+        <v>0.2826348240844624</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.19245678165607333</v>
+        <v>0.2518211214791251</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.17152499154941941</v>
+        <v>0.22454488300526892</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.15286923060743035</v>
+        <v>0.20018160295774604</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.13624504722766898</v>
+        <v>0.17841578645707645</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.1214287827467682</v>
+        <v>0.15900935946201886</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.10822361185086514</v>
+        <v>0.14171691486440116</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.09645446752195042</v>
+        <v>0.12630568038152143</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.08596518641890274</v>
+        <v>0.11257017845099888</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.07661658953223373</v>
+        <v>0.10032835520479526</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.08335542511525199</v>
+        <v>0.08941779911713363</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.07429063410229057</v>
+        <v>0.07969373841834057</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.07102714820473018</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-185.6301132024547</v>
+        <v>-318.3101855076464</v>
       </c>
       <c r="B2" t="n">
-        <v>-147.4514785940771</v>
+        <v>-252.84290681398403</v>
       </c>
       <c r="C2" t="n">
-        <v>-117.12517290487627</v>
+        <v>-200.8404349043925</v>
       </c>
       <c r="D2" t="n">
-        <v>-93.03620977097661</v>
+        <v>-159.53344852161518</v>
       </c>
       <c r="E2" t="n">
-        <v>-73.90176406366689</v>
+        <v>-126.7222000138864</v>
       </c>
       <c r="F2" t="n">
-        <v>-58.70285677296298</v>
+        <v>-100.65937075095773</v>
       </c>
       <c r="G2" t="n">
-        <v>-46.63009065862712</v>
+        <v>-79.9570200352147</v>
       </c>
       <c r="H2" t="n">
-        <v>-37.040546893701006</v>
+        <v>-63.51267219799209</v>
       </c>
       <c r="I2" t="n">
-        <v>-29.42354728867942</v>
+        <v>-50.45060574925131</v>
       </c>
       <c r="J2" t="n">
-        <v>-23.37345880798818</v>
+        <v>-40.075218013367646</v>
       </c>
       <c r="K2" t="n">
-        <v>-18.568092116258704</v>
+        <v>-31.83398174706538</v>
       </c>
       <c r="L2" t="n">
-        <v>-14.751543790550123</v>
+        <v>-25.288021042806687</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.720568468442549</v>
+        <v>-20.088739574161682</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.313755168609836</v>
+        <v>-15.9592565459466</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.402931322350612</v>
+        <v>-12.679661733695081</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.886336627165524</v>
+        <v>-10.075304365409377</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.683202960509885</v>
+        <v>-8.0074921376097</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.7294512244073417</v>
+        <v>-6.366104957935239</v>
       </c>
       <c r="S2" t="n">
-        <v>-2.974274982154027</v>
+        <v>-5.063729876185874</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.377427003147387</v>
+        <v>-4.03100448110997</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.9070603905567183</v>
+        <v>-3.2129200084473397</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.5380020717655247</v>
+        <v>-2.565885744440386</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.2503538311403184</v>
+        <v>-2.055395348492209</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.0283261140711633</v>
+        <v>-1.6541649600698765</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.8592171812134194</v>
+        <v>-1.3406332474168614</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.732467721956601</v>
+        <v>-1.0977258402340269</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.6387763985155832</v>
+        <v>-0.9117939580117154</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.5693921406461828</v>
+        <v>-0.7716488527602882</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.5158852864838218</v>
+        <v>-0.6676519245563338</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.47072639400470606</v>
+        <v>-0.5909218865831233</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.4285212903987197</v>
+        <v>-0.5328989684925737</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.38694565634684613</v>
+        <v>-0.4856273213141762</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.3463715917802388</v>
+        <v>-0.4428355076583488</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.3083414677335153</v>
+        <v>-0.40111378632702704</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.27405714018742305</v>
+        <v>-0.36004520701982035</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.24377412761698034</v>
+        <v>-0.32096938552776577</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.21706731952903066</v>
+        <v>-0.2853265730762831</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.19336937445450272</v>
+        <v>-0.2537001261869885</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.1722614339323026</v>
+        <v>-0.22583663889552844</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.1534564852319</v>
+        <v>-0.20116600579686017</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.1367107852011656</v>
+        <v>-0.17920892343680644</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.12179850659803411</v>
+        <v>-0.1596446901555661</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.10851721701917184</v>
+        <v>-0.14222107195049188</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.09668761713019468</v>
+        <v>-0.12670574243478866</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.08615033507237341</v>
+        <v>-0.11288787246548851</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.07676362398013256</v>
+        <v>-0.10058063383510617</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08352949139920615</v>
+        <v>-0.08961813598378801</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.07442886853723316</v>
+        <v>-0.07985283300683317</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.07115349414851423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -968,440 +986,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.6839994427349533</v>
+        <v>0.68399981047943</v>
       </c>
       <c r="B1" t="n">
-        <v>0.683999116795047</v>
+        <v>0.6839996996302113</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6839986002160546</v>
+        <v>0.6839995239461485</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6839977814959032</v>
+        <v>0.6839992455059483</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6839964839178795</v>
+        <v>0.6839988042086611</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6839944274103008</v>
+        <v>0.6839981048013293</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6839911681031122</v>
+        <v>0.6839969963197677</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6839860025439685</v>
+        <v>0.6839952395058319</v>
       </c>
       <c r="I1" t="n">
-        <v>0.6839778159221535</v>
+        <v>0.6839924551708774</v>
       </c>
       <c r="J1" t="n">
-        <v>0.6839648415980774</v>
+        <v>0.6839880423664216</v>
       </c>
       <c r="K1" t="n">
-        <v>0.6839442801800959</v>
+        <v>0.6839810487161517</v>
       </c>
       <c r="L1" t="n">
-        <v>0.6839116962965688</v>
+        <v>0.6839699649631982</v>
       </c>
       <c r="M1" t="n">
-        <v>0.6838600637866844</v>
+        <v>0.6839523994931841</v>
       </c>
       <c r="N1" t="n">
-        <v>0.6837782555523737</v>
+        <v>0.6839245628489585</v>
       </c>
       <c r="O1" t="n">
-        <v>0.6836486579818811</v>
+        <v>0.6838804516483076</v>
       </c>
       <c r="P1" t="n">
-        <v>0.6834434097894198</v>
+        <v>0.6838105574591098</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.6831184905601502</v>
+        <v>0.683699826229861</v>
       </c>
       <c r="R1" t="n">
-        <v>0.6826044763588238</v>
+        <v>0.6835244385952296</v>
       </c>
       <c r="S1" t="n">
-        <v>0.6817922013872295</v>
+        <v>0.6832467431780982</v>
       </c>
       <c r="T1" t="n">
-        <v>0.680510817347824</v>
+        <v>0.6828073173503164</v>
       </c>
       <c r="U1" t="n">
-        <v>0.6784949708141699</v>
+        <v>0.6821126128764592</v>
       </c>
       <c r="V1" t="n">
-        <v>0.6753375681577507</v>
+        <v>0.6810159486272069</v>
       </c>
       <c r="W1" t="n">
-        <v>0.6704263450336965</v>
+        <v>0.6792888160694056</v>
       </c>
       <c r="X1" t="n">
-        <v>0.6628694970570868</v>
+        <v>0.6765789302161659</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.6514339155118597</v>
+        <v>0.672352265287318</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.6345562152199945</v>
+        <v>0.665821017252664</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.6105384444561512</v>
+        <v>0.6558730420204999</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.5780604976844592</v>
+        <v>0.6410480899177072</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.5370078478190192</v>
+        <v>0.6196548234581271</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.48922869469892744</v>
+        <v>0.590163380326181</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.4384694230948994</v>
+        <v>0.5519445246940333</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.38909401002062927</v>
+        <v>0.5061246313898985</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.3443288587885473</v>
+        <v>0.4558868061723147</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.30534484286040464</v>
+        <v>0.4055855470354006</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.2716493889286511</v>
+        <v>0.35900481733387885</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.24213570073278898</v>
+        <v>0.31803500803071805</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.21590126970225268</v>
+        <v>0.2826467328331695</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.19245472276851455</v>
+        <v>0.2518249776138673</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.17152411070510143</v>
+        <v>0.22454293686652282</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.1528687438993844</v>
+        <v>0.2001791180959324</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.13624465638965044</v>
+        <v>0.1784145853342374</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.12142849767964929</v>
+        <v>0.15900880484497254</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.10822341288853829</v>
+        <v>0.14171649321073174</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.09645432666576688</v>
+        <v>0.12630535888059702</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.08596508672217108</v>
+        <v>0.11256995387206775</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.07661651898958438</v>
+        <v>0.10032819675357335</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.08335533424117189</v>
+        <v>0.08941768689357973</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.07429056979850016</v>
+        <v>0.07969365901810484</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.07102709201752254</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-185.63011701370044</v>
+        <v>-318.3101877302854</v>
       </c>
       <c r="B2" t="n">
-        <v>-147.45148339210343</v>
+        <v>-252.84290961211127</v>
       </c>
       <c r="C2" t="n">
-        <v>-117.12517894513822</v>
+        <v>-200.8404384270071</v>
       </c>
       <c r="D2" t="n">
-        <v>-93.03621737502569</v>
+        <v>-159.53345295628648</v>
       </c>
       <c r="E2" t="n">
-        <v>-73.90177363621807</v>
+        <v>-126.72220559673153</v>
       </c>
       <c r="F2" t="n">
-        <v>-58.70286882333393</v>
+        <v>-100.65937777919318</v>
       </c>
       <c r="G2" t="n">
-        <v>-46.63010582763515</v>
+        <v>-79.9570288829393</v>
       </c>
       <c r="H2" t="n">
-        <v>-37.040565987338226</v>
+        <v>-63.5126833360197</v>
       </c>
       <c r="I2" t="n">
-        <v>-29.4235713201362</v>
+        <v>-50.45061977000485</v>
       </c>
       <c r="J2" t="n">
-        <v>-23.373489049818975</v>
+        <v>-40.07523566207179</v>
       </c>
       <c r="K2" t="n">
-        <v>-18.56813016458627</v>
+        <v>-31.834003960722786</v>
       </c>
       <c r="L2" t="n">
-        <v>-14.751591642979461</v>
+        <v>-25.288048998682477</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.72062861638372</v>
+        <v>-20.088774749660583</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.3138307021598</v>
+        <v>-15.959300791687719</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.403026040182835</v>
+        <v>-12.67971736094017</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.886455132191523</v>
+        <v>-10.075374247121466</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.683350699759017</v>
+        <v>-8.007579818038696</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.7296343922768957</v>
+        <v>-6.366214756410881</v>
       </c>
       <c r="S2" t="n">
-        <v>-2.974500145148874</v>
+        <v>-5.063866952766702</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.377700230654879</v>
+        <v>-4.031174798997971</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.9073856432359753</v>
+        <v>-3.2131300745675424</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.5383787444302637</v>
+        <v>-2.5661419373939216</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.2507738632783285</v>
+        <v>-2.055702585697488</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.0287719308859014</v>
+        <v>-1.654524518792074</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.8596621625129366</v>
+        <v>-1.3410399263880417</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.7328798278920525</v>
+        <v>-1.0981654248387396</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.639123612606112</v>
+        <v>-0.9122426625174876</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.5696482376515594</v>
+        <v>-0.7720759264140572</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.5160364340158579</v>
+        <v>-0.668024699094787</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.4707786340922443</v>
+        <v>-0.5912114847994331</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.4285035386480348</v>
+        <v>-0.5330864770204721</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.38690040006408133</v>
+        <v>-0.48571123863102983</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.3463351140543559</v>
+        <v>-0.4428372428911825</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.30832817450984495</v>
+        <v>-0.40107309748837705</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.2740605529546909</v>
+        <v>-0.36000283844689407</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.24378122228087767</v>
+        <v>-0.3209480635521584</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.21707120261303692</v>
+        <v>-0.28532575898455476</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.19337049375065027</v>
+        <v>-0.2537071917850213</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.17226193375300045</v>
+        <v>-0.2258418416036143</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.15345700976033202</v>
+        <v>-0.201167795927973</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.13671119818802835</v>
+        <v>-0.17920947930060144</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.12179878686925424</v>
+        <v>-0.15964521313223873</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.10851741454640941</v>
+        <v>-0.1422215354970332</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.09668775739830524</v>
+        <v>-0.12670606190552072</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.08615043433301706</v>
+        <v>-0.11288809436074128</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.07676369425310801</v>
+        <v>-0.10058079165725453</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08352958189079823</v>
+        <v>-0.0896182477003</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.07442893260252702</v>
+        <v>-0.0798529120906708</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.0711535501362836</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -1419,440 +1446,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.683332778165144</v>
+        <v>0.6833331445258798</v>
       </c>
       <c r="B1" t="n">
-        <v>0.6833324534516939</v>
+        <v>0.68333303409376</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6833319388165313</v>
+        <v>0.6833328590707579</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6833311231772126</v>
+        <v>0.6833325816782763</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6833298304821553</v>
+        <v>0.6833321420415315</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6833277817139988</v>
+        <v>0.6833314452660332</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6833245346740767</v>
+        <v>0.6833303409557749</v>
       </c>
       <c r="H1" t="n">
-        <v>0.683319388560025</v>
+        <v>0.6833285907532317</v>
       </c>
       <c r="I1" t="n">
-        <v>0.6833112327635936</v>
+        <v>0.6833258168974379</v>
       </c>
       <c r="J1" t="n">
-        <v>0.6832983073119943</v>
+        <v>0.6833214207033653</v>
       </c>
       <c r="K1" t="n">
-        <v>0.6832778233956324</v>
+        <v>0.683314453383881</v>
       </c>
       <c r="L1" t="n">
-        <v>0.6832453624539935</v>
+        <v>0.6833034113752134</v>
       </c>
       <c r="M1" t="n">
-        <v>0.683193925069101</v>
+        <v>0.6832859120975423</v>
       </c>
       <c r="N1" t="n">
-        <v>0.683112426773166</v>
+        <v>0.683258180441554</v>
       </c>
       <c r="O1" t="n">
-        <v>0.6829833221246431</v>
+        <v>0.6832142358372826</v>
       </c>
       <c r="P1" t="n">
-        <v>0.6827788593569687</v>
+        <v>0.6831446061877612</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.6824551951676654</v>
+        <v>0.6830342954742005</v>
       </c>
       <c r="R1" t="n">
-        <v>0.6819431945513904</v>
+        <v>0.6828595773974406</v>
       </c>
       <c r="S1" t="n">
-        <v>0.6811341678764296</v>
+        <v>0.6825829507102071</v>
       </c>
       <c r="T1" t="n">
-        <v>0.6798580588146773</v>
+        <v>0.6821452369127834</v>
       </c>
       <c r="U1" t="n">
-        <v>0.6778508346883815</v>
+        <v>0.681453288677896</v>
       </c>
       <c r="V1" t="n">
-        <v>0.6747075760893452</v>
+        <v>0.6803610898390015</v>
       </c>
       <c r="W1" t="n">
-        <v>0.6698194547267013</v>
+        <v>0.6786412411476745</v>
       </c>
       <c r="X1" t="n">
-        <v>0.6622996622620162</v>
+        <v>0.6759432963720472</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.650921349757712</v>
+        <v>0.6717361882497748</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.6341270131421434</v>
+        <v>0.6652365648619081</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.6102205766626276</v>
+        <v>0.6553382095568573</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.5778746691283272</v>
+        <v>0.6405871843111527</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.536954945467837</v>
+        <v>0.6192959323012226</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.48928152737243813</v>
+        <v>0.5899310314625812</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.43857872489746347</v>
+        <v>0.5518477558664726</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.3892088372603623</v>
+        <v>0.5061460551140177</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.3444170027160248</v>
+        <v>0.4559829501270907</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.30539893778211347</v>
+        <v>0.40570335334933255</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.2716784719594565</v>
+        <v>0.35910410004722415</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.24215217138661232</v>
+        <v>0.3181002798649208</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.21591272524054855</v>
+        <v>0.28268289760499854</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.19246349612909158</v>
+        <v>0.25184458690167133</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.1715305463697497</v>
+        <v>0.2245556389044</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.152873267570131</v>
+        <v>0.2001887385256992</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.1362478363412438</v>
+        <v>0.17842179108520345</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.12143074870454262</v>
+        <v>0.15901391653049954</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.1082250060388291</v>
+        <v>0.14172007631045244</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.09645545378195765</v>
+        <v>0.1263078917792673</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.08596588424552075</v>
+        <v>0.11257174717092389</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.07661708333033969</v>
+        <v>0.10032946546537429</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.08335606121850762</v>
+        <v>0.08941858457328207</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.0742910842265839</v>
+        <v>0.07969429422091602</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.07102754151245666</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-185.63011542562506</v>
+        <v>-318.31018680416366</v>
       </c>
       <c r="B2" t="n">
-        <v>-147.45148139283438</v>
+        <v>-252.84290844619298</v>
       </c>
       <c r="C2" t="n">
-        <v>-117.12517642820647</v>
+        <v>-200.8404369592027</v>
       </c>
       <c r="D2" t="n">
-        <v>-93.03621420639405</v>
+        <v>-159.53345110842977</v>
       </c>
       <c r="E2" t="n">
-        <v>-73.90176964714259</v>
+        <v>-126.72220327041684</v>
       </c>
       <c r="F2" t="n">
-        <v>-58.70286380137625</v>
+        <v>-100.6593748505347</v>
       </c>
       <c r="G2" t="n">
-        <v>-46.63009950534674</v>
+        <v>-79.95702519597307</v>
       </c>
       <c r="H2" t="n">
-        <v>-37.0405580280123</v>
+        <v>-63.51267869439699</v>
       </c>
       <c r="I2" t="n">
-        <v>-29.42356129986618</v>
+        <v>-50.45061392653363</v>
       </c>
       <c r="J2" t="n">
-        <v>-23.373476434902813</v>
+        <v>-40.07522830554863</v>
       </c>
       <c r="K2" t="n">
-        <v>-18.568114283063675</v>
+        <v>-31.833994699351628</v>
       </c>
       <c r="L2" t="n">
-        <v>-14.751571648767982</v>
+        <v>-25.28803733919335</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.72060344407151</v>
+        <v>-20.08876007100838</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.313799009995135</v>
+        <v>-15.959282311915599</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.402986138157935</v>
+        <v>-12.679694095416238</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.8864048913744735</v>
+        <v>-10.075344955879435</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.683287438362394</v>
+        <v>-8.007542939354007</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.729554734047474</v>
+        <v>-6.366168323026169</v>
       </c>
       <c r="S2" t="n">
-        <v>-2.9743998486599046</v>
+        <v>-5.063808486448687</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.3775739998523227</v>
+        <v>-4.031101178806487</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.9072269639370176</v>
+        <v>-3.2130373758175974</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.538179873851542</v>
+        <v>-2.566025246014252</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.2505262573577791</v>
+        <v>-2.0555558170575403</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.0284676062966487</v>
+        <v>-1.6543403325209465</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.8592965966413174</v>
+        <v>-1.3408099588997977</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.7324566602893211</v>
+        <v>-1.0978812638287918</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.638660212851533</v>
+        <v>-0.911898160156305</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.5691789796521748</v>
+        <v>-0.7716713074542697</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.515608428940979</v>
+        <v>-0.6675720574364049</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.4704367042004956</v>
+        <v>-0.5907393615073406</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.428270538917679</v>
+        <v>-0.5326387834326474</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.3867676845028987</v>
+        <v>-0.48533582481979165</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.34627154114034353</v>
+        <v>-0.44256638234508433</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.30829930174460873</v>
+        <v>-0.4009088228433321</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.27404324622273046</v>
+        <v>-0.3599197301680629</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.24376659421612906</v>
+        <v>-0.32091067481197694</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.21705877313349506</v>
+        <v>-0.28530614762652967</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.1933612374199849</v>
+        <v>-0.25369195596920285</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.17225553675667185</v>
+        <v>-0.22582851632199813</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.1534525584267272</v>
+        <v>-0.2011574208943856</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.13670804155918656</v>
+        <v>-0.17920220427941722</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.12179654810283842</v>
+        <v>-0.15964018915176445</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.10851583004375476</v>
+        <v>-0.1422179876136728</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0966866357001041</v>
+        <v>-0.1267035429034581</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.08614964022163978</v>
+        <v>-0.11288631099592422</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.076763132066075</v>
+        <v>-0.1005795293176052</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08352885793050785</v>
+        <v>-0.08961735401279405</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.07442842007824657</v>
+        <v>-0.07985227940905365</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.07115310223200691</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
